--- a/2024/shuffle-architecute/Teste10/content/results/metrics_2_6.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_2_6.xlsx
@@ -488,482 +488,482 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_0</t>
+          <t>model_2_6_14</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.984325357697198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7978085814807934</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8542850335376445</v>
       </c>
       <c r="E2" t="n">
-        <v>0.751804436986968</v>
+        <v>0.974778380819614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9620857964750016</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.06578312069177628</v>
       </c>
       <c r="H2" t="n">
-        <v>1.670795202255249</v>
+        <v>1.352054953575134</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1529218852519989</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1953544169664383</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.1741382479667664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_22</t>
+          <t>model_2_6_15</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9842141932657255</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7978039931892832</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.850699304519235</v>
       </c>
       <c r="E3" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9733425233470167</v>
       </c>
       <c r="F3" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9604654337332548</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.06624965369701385</v>
       </c>
       <c r="H3" t="n">
-        <v>1.670795202255249</v>
+        <v>1.352085590362549</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1566849648952484</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.2064758688211441</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.1815804988145828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_21</t>
+          <t>model_2_6_16</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9840577977455757</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7977593387805897</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8473521378454845</v>
       </c>
       <c r="E4" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9720156411684766</v>
       </c>
       <c r="F4" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9589642343029968</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.06690601259469986</v>
       </c>
       <c r="H4" t="n">
-        <v>1.670795202255249</v>
+        <v>1.352384209632874</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1601976752281189</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.2167532593011856</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.1884754300117493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_20</t>
+          <t>model_2_6_13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9843716171088746</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7977576559527064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8581073894237994</v>
       </c>
       <c r="E5" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9763263562849046</v>
       </c>
       <c r="F5" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9638277637170249</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.06558898091316223</v>
       </c>
       <c r="H5" t="n">
-        <v>1.670795202255249</v>
+        <v>1.352395415306091</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1489104628562927</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1833645552396774</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.1661374568939209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_19</t>
+          <t>model_2_6_17</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9838713779525694</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7976864967187742</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.844241336788072</v>
       </c>
       <c r="E6" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9707933815777052</v>
       </c>
       <c r="F6" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9575782251823081</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.06768836826086044</v>
       </c>
       <c r="H6" t="n">
-        <v>1.670795202255249</v>
+        <v>1.352871298789978</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1634623259305954</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.2262202948331833</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.1948413103818893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_18</t>
+          <t>model_2_6_12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9843274632737307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7976312948454977</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8621539017006868</v>
       </c>
       <c r="E7" t="n">
-        <v>0.751804436986968</v>
+        <v>0.977987833342699</v>
       </c>
       <c r="F7" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9656910173160431</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.06577428430318832</v>
       </c>
       <c r="H7" t="n">
-        <v>1.670795202255249</v>
+        <v>1.353240489959717</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1446638256311417</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1704955548048019</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.1575796157121658</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_17</t>
+          <t>model_2_6_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9836666099342154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7975946103759247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8413601315265595</v>
       </c>
       <c r="E8" t="n">
-        <v>0.751804436986968</v>
+        <v>0.969670652473568</v>
       </c>
       <c r="F8" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9563023870033248</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.06854774057865143</v>
       </c>
       <c r="H8" t="n">
-        <v>1.670795202255249</v>
+        <v>1.353485822677612</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1664860397577286</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.2349164038896561</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.2007011771202087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_16</t>
+          <t>model_2_6_19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9834522809595393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7974906685607395</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8386995793619</v>
       </c>
       <c r="E9" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9686416976605379</v>
       </c>
       <c r="F9" t="n">
-        <v>0.893334773638839</v>
+        <v>0.955130823979309</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.06944723427295685</v>
       </c>
       <c r="H9" t="n">
-        <v>1.670795202255249</v>
+        <v>1.354180812835693</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1692781746387482</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.2428861856460571</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.2060821056365967</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_15</t>
+          <t>model_2_6_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9841599377309982</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7974037289991407</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8663956902045198</v>
       </c>
       <c r="E10" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9797615994546632</v>
       </c>
       <c r="F10" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9676712494163849</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.06647735089063644</v>
       </c>
       <c r="H10" t="n">
-        <v>1.670795202255249</v>
+        <v>1.354762196540833</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1402122378349304</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1567568182945251</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.1484844982624054</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_14</t>
+          <t>model_2_6_20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9832350126619632</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7973799098209204</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8362487787572016</v>
       </c>
       <c r="E11" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9677006949199209</v>
       </c>
       <c r="F11" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9540573617813692</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.07035906612873077</v>
       </c>
       <c r="H11" t="n">
-        <v>1.670795202255249</v>
+        <v>1.354921579360962</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1718501895666122</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.2501747310161591</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.2110124826431274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_13</t>
+          <t>model_2_6_21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9830196780600747</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7972663493277172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8339966360467308</v>
       </c>
       <c r="E12" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9668416037800682</v>
       </c>
       <c r="F12" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9530756511628583</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.07126277685165405</v>
       </c>
       <c r="H12" t="n">
-        <v>1.670795202255249</v>
+        <v>1.3556809425354</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.174213707447052</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.2568288147449493</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.215521439909935</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_23</t>
+          <t>model_2_6_22</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9828098151864669</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7971528851947887</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8319302868068463</v>
       </c>
       <c r="E13" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9660585434671647</v>
       </c>
       <c r="F13" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9521793494450401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.07214352488517761</v>
       </c>
       <c r="H13" t="n">
-        <v>1.670795202255249</v>
+        <v>1.356439590454102</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1763822734355927</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.2628940343856812</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.2196381092071533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_12</t>
+          <t>model_2_6_23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9826079265374157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7970416806134504</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8300395153739972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9653457941527216</v>
       </c>
       <c r="F14" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9513623339916184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.07299081236124039</v>
       </c>
       <c r="H14" t="n">
-        <v>1.670795202255249</v>
+        <v>1.357183218002319</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.178366556763649</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.2684146761894226</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.2233906239271164</v>
       </c>
     </row>
     <row r="15">
@@ -973,441 +973,441 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9838267356654594</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7970416139567926</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8707840050149941</v>
       </c>
       <c r="E15" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9816429229632834</v>
       </c>
       <c r="F15" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9697589199750348</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.06787573546171188</v>
       </c>
       <c r="H15" t="n">
-        <v>1.670795202255249</v>
+        <v>1.357183575630188</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1356068849563599</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1421850174665451</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.1388959288597107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_9</t>
+          <t>model_2_6_24</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9824156114263675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.796934212351279</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8283099111976413</v>
       </c>
       <c r="E16" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9646978357310559</v>
       </c>
       <c r="F16" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9506183793292243</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.07379791885614395</v>
       </c>
       <c r="H16" t="n">
-        <v>1.670795202255249</v>
+        <v>1.357901930809021</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1801817119121552</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.2734334170818329</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.2268075793981552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_8</t>
+          <t>model_2_6_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9832732455232449</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.796501828787019</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8752276913132124</v>
       </c>
       <c r="E17" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9836224729587091</v>
       </c>
       <c r="F17" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9719357332940841</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.07019861042499542</v>
       </c>
       <c r="H17" t="n">
-        <v>1.670795202255249</v>
+        <v>1.360793232917786</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1309434175491333</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1268523782491684</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.1288979202508926</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_7</t>
+          <t>model_2_6_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9824291224605521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7957283620434802</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8795774474625768</v>
       </c>
       <c r="E18" t="n">
-        <v>0.751804436986968</v>
+        <v>0.985684357334633</v>
       </c>
       <c r="F18" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9741712664480012</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.07374120503664017</v>
       </c>
       <c r="H18" t="n">
-        <v>1.670795202255249</v>
+        <v>1.365965366363525</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1263785362243652</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.1108820214867592</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.1186302155256271</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_6</t>
+          <t>model_2_6_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9812033427878745</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7946486174353989</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.883587935581686</v>
       </c>
       <c r="E19" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9878045065886568</v>
       </c>
       <c r="F19" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9764171336171998</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.07888554781675339</v>
       </c>
       <c r="H19" t="n">
-        <v>1.670795202255249</v>
+        <v>1.373185634613037</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1221696883440018</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.0944603756070137</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.1083150431513786</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_5</t>
+          <t>model_2_6_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9794780078973127</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.793168033925947</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8868617995039678</v>
       </c>
       <c r="E20" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9899477118492067</v>
       </c>
       <c r="F20" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9785983095649068</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.0861264169216156</v>
       </c>
       <c r="H20" t="n">
-        <v>1.670795202255249</v>
+        <v>1.383086323738098</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1187338978052139</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.07786014676094055</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.09829699993133545</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_4</t>
+          <t>model_2_6_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9771001153966421</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.791163510064447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8887744771744707</v>
       </c>
       <c r="E21" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9920652946738202</v>
       </c>
       <c r="F21" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9806023635421369</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.0961059108376503</v>
       </c>
       <c r="H21" t="n">
-        <v>1.670795202255249</v>
+        <v>1.396490573883057</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1167266219854355</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.06145837530493736</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.08909247070550919</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_3</t>
+          <t>model_2_6_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9738710800269073</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7884757304017622</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8883591416530326</v>
       </c>
       <c r="E22" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9940927786253807</v>
       </c>
       <c r="F22" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9822644772664624</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1096574813127518</v>
       </c>
       <c r="H22" t="n">
-        <v>1.670795202255249</v>
+        <v>1.414463758468628</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1171625033020973</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.04575446993112564</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.08145846426486969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_2</t>
+          <t>model_2_6_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9695338763142696</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7849000699067654</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8841714894437279</v>
       </c>
       <c r="E23" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9959494002027846</v>
       </c>
       <c r="F23" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9833515397472747</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1278598010540009</v>
       </c>
       <c r="H23" t="n">
-        <v>1.670795202255249</v>
+        <v>1.438374161720276</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1215572729706764</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.03137397766113281</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.07646562904119492</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_1</t>
+          <t>model_2_6_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9637570794934549</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7801773187354585</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8741239026882912</v>
       </c>
       <c r="E24" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9975419215341961</v>
       </c>
       <c r="F24" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9835464515316721</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1521037817001343</v>
       </c>
       <c r="H24" t="n">
-        <v>1.670795202255249</v>
+        <v>1.469955444335938</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1321018040180206</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.0190390832722187</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.07557041198015213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_11</t>
+          <t>model_2_6_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9561159761411773</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7739866285814316</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8553533855465986</v>
       </c>
       <c r="E25" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9987753633825118</v>
       </c>
       <c r="F25" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9824420126416613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1841718703508377</v>
       </c>
       <c r="H25" t="n">
-        <v>1.670795202255249</v>
+        <v>1.51135241985321</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1518006920814514</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.009485440328717232</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.08064304292201996</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_24</t>
+          <t>model_2_6_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9460732705529961</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7659501530273839</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999157760856304</v>
+        <v>0.8242523895609786</v>
       </c>
       <c r="E26" t="n">
-        <v>0.751804436986968</v>
+        <v>0.9995752084344836</v>
       </c>
       <c r="F26" t="n">
-        <v>0.893334773638839</v>
+        <v>0.9795632388442115</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.2263189256191254</v>
       </c>
       <c r="H26" t="n">
-        <v>1.670795202255249</v>
+        <v>1.565092444419861</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001982359972316772</v>
+        <v>0.1844398975372314</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8602918982505798</v>
+        <v>0.003290229244157672</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4302450716495514</v>
+        <v>0.09386513382196426</v>
       </c>
     </row>
   </sheetData>
